--- a/lab8/Report.xlsx
+++ b/lab8/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DistributedComputing\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E3ABC-D752-4C1D-9AD0-563C5050F697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAAE28C-E5FE-49E1-9CFC-91E757325E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="585" windowWidth="15465" windowHeight="14325" xr2:uid="{E739FD72-4C43-4FA7-B27D-E31830F1BBF6}"/>
+    <workbookView xWindow="10572" yWindow="1044" windowWidth="12372" windowHeight="11316" xr2:uid="{E739FD72-4C43-4FA7-B27D-E31830F1BBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B087943-5191-4B51-9C7A-5C32B2DCC8FF}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,21 +1446,21 @@
         <v>100</v>
       </c>
       <c r="C29" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="2"/>
       <c r="F29" s="27"/>
       <c r="G29" s="35">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H29" s="36">
         <f>C29/G29</f>
-        <v>0.34</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I29" s="37">
         <f>H29/$G$3</f>
-        <v>8.5000000000000006E-2</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -1509,18 +1509,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
